--- a/app/tmp/excels/deposit_template.xlsx
+++ b/app/tmp/excels/deposit_template.xlsx
@@ -1,115 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takano yohei\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="us" sheetId="1" r:id="rId1"/>
-    <sheet name="japan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>挙式日</t>
-  </si>
-  <si>
-    <t>顧客名</t>
-  </si>
-  <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <t>RW Total / 売上</t>
-    <rPh sb="11" eb="13">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>粗利 Total / 売上</t>
-    <rPh sb="0" eb="2">
-      <t>アラリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">全体額 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレンジメートフィー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HI取り分</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RW取り分</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>税金</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送金税金</t>
-    <rPh sb="0" eb="2">
-      <t>ソウキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RW割引</t>
-    <rPh sb="2" eb="4">
-      <t>ワリビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体割引</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ワリビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RW　Total</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>粗利 Total</t>
-    <rPh sb="0" eb="2">
-      <t>アラリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入金日</t>
@@ -277,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -311,12 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -326,25 +227,10 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -696,7 +582,8 @@
     <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
-    <col min="7" max="12" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="12" width="12.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="3" customWidth="1"/>
     <col min="14" max="16" width="15.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.75" style="3" customWidth="1"/>
@@ -704,10 +591,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
@@ -734,38 +621,38 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>26</v>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -776,32 +663,32 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="2:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
+    <row r="6" spans="2:20" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -811,19 +698,19 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="13"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="15">
+      <c r="D7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13">
         <f>SUM(G5:G6)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -836,209 +723,4 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="1.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="12" width="12.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.875" style="3" customWidth="1"/>
-    <col min="17" max="19" width="15.625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="3" customWidth="1"/>
-    <col min="21" max="23" width="9" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="2:23" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="2:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" ref="E7:L7" si="0">SUM(E5:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <f>SUM(M5:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="17" t="e">
-        <f>M7/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="22">
-        <f>SUM(O5:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="17" t="e">
-        <f>O7/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>